--- a/Data/Processed/Angiosperms/missing_powo_ipni/Orchidaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Orchidaceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Richardiana 10(4): 215 (-218; fig. 9). 2010 [Sep 2010] </t>
+          <t>Richardiana 10(4): 215 (-218; fig. 9). 2010 [Sep 2010]</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -643,7 +643,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Richardiana 9(3): 121 (120-124; figs. 1-2, photo). 2009 [Jul 2009] </t>
+          <t>Richardiana 9(3): 121 (120-124; figs. 1-2, photo). 2009 [Jul 2009]</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -799,7 +799,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colet. Orquídeas Brasil. 12: 458. 2016 [28 Jul 2016] </t>
+          <t>Colet. Orquídeas Brasil. 12: 458. 2016 [28 Jul 2016]</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -955,7 +955,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Richardiana 9(1): 4 (-7, 16-17; fig. 1, photos a &amp; b). 2008 [Jan 2009 publ. 24 Dec 2008] </t>
+          <t>Richardiana 9(1): 4 (-7, 16-17; fig. 1, photos a &amp; b). 2008 [Jan 2009 publ. 24 Dec 2008]</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colet. Orquídeas Brasil. 16: 642. 2020 [25 Aug 2020] </t>
+          <t>Colet. Orquídeas Brasil. 16: 642. 2020 [25 Aug 2020]</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Verh. Vereins Beford. Gartenbaues Konigl. Preuss. Staaten 1: 289,  t. 6. 1824 </t>
+          <t>Verh. Vereins Beford. Gartenbaues Konigl. Preuss. Staaten 1: 289,  t. 6. 1824</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Richardiana 5(4): 187. 2005 </t>
+          <t>Richardiana 5(4): 187. 2005</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ark. Bot. 16(8): 25. 1921 </t>
+          <t>Ark. Bot. 16(8): 25. 1921</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colet. Orquídeas Brasil. 18: 718, plate [s.n.], figs. 1-4. 2022 [Nov 2022] </t>
+          <t>Colet. Orquídeas Brasil. 18: 718, plate [s.n.], figs. 1-4. 2022 [Nov 2022]</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brittonia 20: 186, fig. 2. 1968 </t>
+          <t>Brittonia 20: 186, fig. 2. 1968</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colet. Orquídeas Brasil. 9: 310 (-314; figs.). 2011 [25 May 2011] </t>
+          <t>Colet. Orquídeas Brasil. 9: 310 (-314; figs.). 2011 [25 May 2011]</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colet. Orquídeas Brasil. 16: 651. 2020 [25 Aug 2020] </t>
+          <t>Colet. Orquídeas Brasil. 16: 651. 2020 [25 Aug 2020]</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Allg. Gartenzeitung (Otto &amp; Dietrich) 22: 273. 1854 </t>
+          <t>Allg. Gartenzeitung (Otto &amp; Dietrich) 22: 273. 1854</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Icon. Orchid. Brasil. 3: t. 211. 2012 [Oct 2012] </t>
+          <t>Icon. Orchid. Brasil. 3: t. 211. 2012 [Oct 2012]</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bradea 2(27): 186 (-187), fig. C. 1977 </t>
+          <t>Bradea 2(27): 186 (-187), fig. C. 1977</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. CAOB 53: 18 (-20; photogrs.; plate; map). 2004 [20 May 2004] </t>
+          <t>Bol. CAOB 53: 18 (-20; photogrs.; plate; map). 2004 [20 May 2004]</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orquideologia 14(1): 17 (16; photogr. 2). 2000 </t>
+          <t>Orquideologia 14(1): 17 (16; photogr. 2). 2000</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. CAOB 55: 88 (-91; photogrs.; plate; map). 2004 [10 Oct 2004] </t>
+          <t>Bol. CAOB 55: 88 (-91; photogrs.; plate; map). 2004 [10 Oct 2004]</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orchid Digest 53(4): 153, without type. 1989 [18 Sep 1989] </t>
+          <t>Orchid Digest 53(4): 153, without type. 1989 [18 Sep 1989]</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brasil Florestal 15(66): 17 (1988), without type; et. </t>
+          <t>Brasil Florestal 15(66): 17 (1988), without type; et.</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orchidee (Hamburg) 57(2): 77 (72-77; figs.). 2006 </t>
+          <t>Orchidee (Hamburg) 57(2): 77 (72-77; figs.). 2006</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colet. Orquídeas Brasil. 6: 174 (-177; figs.). 2008 [10 Nov 2008] </t>
+          <t>Colet. Orquídeas Brasil. 6: 174 (-177; figs.). 2008 [10 Nov 2008]</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lindleyana 13: 114, fig. 1998 </t>
+          <t>Lindleyana 13: 114, fig. 1998</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Icon. Orchid. Brasil. 3: t. 216. 2012 [Oct 2012] </t>
+          <t>Icon. Orchid. Brasil. 3: t. 216. 2012 [Oct 2012]</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rodriguésia 63(4): 805. 2012 </t>
+          <t>Rodriguésia 63(4): 805. 2012</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Richardiana 9(3): 131 (-134, 140; figs. 1-3, photo). 2009 [Jul 2009] </t>
+          <t>Richardiana 9(3): 131 (-134, 140; figs. 1-3, photo). 2009 [Jul 2009]</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -3217,7 +3217,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colet. Orquídeas Brasil. 6: 178 (-181; figs.). 2008 [10 Nov 2008] </t>
+          <t>Colet. Orquídeas Brasil. 6: 178 (-181; figs.). 2008 [10 Nov 2008]</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Richardiana 9(2): 72 (70-75; figs.). 2009 [Apr 2009] </t>
+          <t>Richardiana 9(2): 72 (70-75; figs.). 2009 [Apr 2009]</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -3373,7 +3373,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Flora 71 (n. s. 46): 155. 1888 </t>
+          <t>Flora 71 (n. s. 46): 155. 1888</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Bot. Gart. Berlin-Dahlem 10: 382. 1928 </t>
+          <t>Notizbl. Bot. Gart. Berlin-Dahlem 10: 382. 1928</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anexos Mem. Inst. Butantan, Secc. Bot. 1, fasc. 4: 67, pl. 14. 1922 </t>
+          <t>Anexos Mem. Inst. Butantan, Secc. Bot. 1, fasc. 4: 67, pl. 14. 1922</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Repert. Spec. Nov. Regni Veg. 23: 60. 1926 </t>
+          <t>Repert. Spec. Nov. Regni Veg. 23: 60. 1926</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -3685,7 +3685,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colet. Orquídeas Brasil. 15: 594. 2019 [30 Jul 2019] </t>
+          <t>Colet. Orquídeas Brasil. 15: 594. 2019 [30 Jul 2019]</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orquidário 24(4): 129 (124-132; figs. 1-11). 2011 [dt. 2010; issued 15 Jan 2011] </t>
+          <t>Orquidário 24(4): 129 (124-132; figs. 1-11). 2011 [dt. 2010; issued 15 Jan 2011]</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Edinburgh J. Bot. 65(1): 28 (27-34; figs. 1-4). 2008 [28 Mar 2008] </t>
+          <t>Edinburgh J. Bot. 65(1): 28 (27-34; figs. 1-4). 2008 [28 Mar 2008]</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -3919,7 +3919,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orchid Rev. 113(1266): 310 (-311; figs.). 2005 [Nov 2005] </t>
+          <t>Orchid Rev. 113(1266): 310 (-311; figs.). 2005 [Nov 2005]</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Richardiana 9(4): 199 (198 - 201; figs). 2009 [23 Sep 2009] </t>
+          <t>Richardiana 9(4): 199 (198 - 201; figs). 2009 [23 Sep 2009]</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -4465,7 +4465,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -4699,7 +4699,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Bot. Gart. Berlin-Dahlem 10: 380. 1928 </t>
+          <t>Notizbl. Bot. Gart. Berlin-Dahlem 10: 380. 1928</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4787,7 +4787,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schlechteriana [N.S.] 4: 113, fig. 1993 </t>
+          <t>Schlechteriana [N.S.] 4: 113, fig. 1993</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Richardiana 8(4): 188 (187-192; figs.). 2008 [13 Oct 2008] </t>
+          <t>Richardiana 8(4): 188 (187-192; figs.). 2008 [13 Oct 2008]</t>
         </is>
       </c>
       <c r="J59" t="b">
@@ -5011,7 +5011,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colet. Orquídeas Brasil. 7: 226 (-229; figs, map). 2009 [Jul 2009] </t>
+          <t>Colet. Orquídeas Brasil. 7: 226 (-229; figs, map). 2009 [Jul 2009]</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Mus. Paraense Emilio Goeldi, N.S., Bot. 14(2): 110 (-112; fig. 1). 1998 [1999] </t>
+          <t>Bol. Mus. Paraense Emilio Goeldi, N.S., Bot. 14(2): 110 (-112; fig. 1). 1998 [1999]</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orquidário 30(1-2): 37. 2016 [20 Jul 2016] </t>
+          <t>Orquidário 30(1-2): 37. 2016 [20 Jul 2016]</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -5323,7 +5323,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -5411,7 +5411,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orchid Rev. 113(1266): 308 (-310; figs.). 2005 [Nov 2005] </t>
+          <t>Orchid Rev. 113(1266): 308 (-310; figs.). 2005 [Nov 2005]</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. CAOB 5: 26, fig. 1993 </t>
+          <t>Bol. CAOB 5: 26, fig. 1993</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -5567,7 +5567,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Icon. Orchid. Brasil. 3: t. 229. 2012 [Oct 2012] </t>
+          <t>Icon. Orchid. Brasil. 3: t. 229. 2012 [Oct 2012]</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -5635,7 +5635,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -5791,7 +5791,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -5869,7 +5869,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gard. Chron. ser. 3, 3: 136. 1888 </t>
+          <t>Gard. Chron. ser. 3, 3: 136. 1888</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -5947,7 +5947,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orchidee (Hamburg) 42: 20, figs. 1991 </t>
+          <t>Orchidee (Hamburg) 42: 20, figs. 1991</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -6103,7 +6103,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -6113,7 +6113,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orquidário 27(3): 93. 2013 [5 Dec 2013] </t>
+          <t>Orquidário 27(3): 93. 2013 [5 Dec 2013]</t>
         </is>
       </c>
       <c r="J74" t="b">
@@ -6181,7 +6181,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trudy Imp. S.-Peterburgsk. Bot. Sada 17: 135. 1898 </t>
+          <t>Trudy Imp. S.-Peterburgsk. Bot. Sada 17: 135. 1898</t>
         </is>
       </c>
       <c r="J75" t="b">
@@ -6259,7 +6259,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -6269,7 +6269,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. CAOB 65: 28 (-31; figs.). 2007 [22 Mar 2007] </t>
+          <t>Bol. CAOB 65: 28 (-31; figs.). 2007 [22 Mar 2007]</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -6347,7 +6347,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Richardiana 5(2): 58 (57-62, 66, 70; figs. 1-2; photogr.; map). 2005 [26 Mar 2005] </t>
+          <t>Richardiana 5(2): 58 (57-62, 66, 70; figs. 1-2; photogr.; map). 2005 [26 Mar 2005]</t>
         </is>
       </c>
       <c r="J77" t="b">
@@ -6415,7 +6415,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orquidário 10: 9 (fig.). 1996 </t>
+          <t>Orquidário 10: 9 (fig.). 1996</t>
         </is>
       </c>
       <c r="J78" t="b">
@@ -6493,7 +6493,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colet. Orquídeas Brasil. 12: 474. 2016 [28 Jul 2016] </t>
+          <t>Colet. Orquídeas Brasil. 12: 474. 2016 [28 Jul 2016]</t>
         </is>
       </c>
       <c r="J79" t="b">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bradea 2(27): 184. 1977 [31 May 1977] </t>
+          <t>Bradea 2(27): 184. 1977 [31 May 1977]</t>
         </is>
       </c>
       <c r="J80" t="b">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -6659,7 +6659,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orch.-Grow. Man., ed. 7. 7th. ed. 161. 1894 </t>
+          <t>Orch.-Grow. Man., ed. 7. 7th. ed. 161. 1894</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colet. Orquídeas Brasil. 16: 655. 2020 [25 Aug 2020] </t>
+          <t>Colet. Orquídeas Brasil. 16: 655. 2020 [25 Aug 2020]</t>
         </is>
       </c>
       <c r="J82" t="b">
@@ -6805,7 +6805,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -6815,7 +6815,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schlechteriana [N.S.] 2: 48, figs. 1992 </t>
+          <t>Schlechteriana [N.S.] 2: 48, figs. 1992</t>
         </is>
       </c>
       <c r="J83" t="b">
@@ -6883,7 +6883,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Intermezzo Marzo: 4 (1992), without type. </t>
+          <t>Intermezzo Marzo: 4 (1992), without type.</t>
         </is>
       </c>
       <c r="J84" t="b">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -6971,7 +6971,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orchid Rev. 14: 143. 1906 </t>
+          <t>Orchid Rev. 14: 143. 1906</t>
         </is>
       </c>
       <c r="J85" t="b">
@@ -7039,7 +7039,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colet. Orquídeas Brasil. 5: 138 (-141; figs.). 2007 [20 Jul 2007] </t>
+          <t>Colet. Orquídeas Brasil. 5: 138 (-141; figs.). 2007 [20 Jul 2007]</t>
         </is>
       </c>
       <c r="J86" t="b">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Richardiana 7(4): 186 (185-191; figs.). 2007 </t>
+          <t>Richardiana 7(4): 186 (185-191; figs.). 2007</t>
         </is>
       </c>
       <c r="J87" t="b">
@@ -7195,7 +7195,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arch. Jard. Bot. Rio de Janeiro 2: 66, pl. 27. 1918 </t>
+          <t>Arch. Jard. Bot. Rio de Janeiro 2: 66, pl. 27. 1918</t>
         </is>
       </c>
       <c r="J89" t="b">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bradea 8(22): 128 (-130, fig.). 1999 </t>
+          <t>Bradea 8(22): 128 (-130, fig.). 1999</t>
         </is>
       </c>
       <c r="J90" t="b">
@@ -7429,7 +7429,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -7439,7 +7439,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Richardiana 7(1): 24(-25; photogr.). 2006 [2007 publ. 28 Dec 2006] </t>
+          <t>Richardiana 7(1): 24(-25; photogr.). 2006 [2007 publ. 28 Dec 2006]</t>
         </is>
       </c>
       <c r="J91" t="b">
@@ -7507,7 +7507,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t xml:space="preserve">et in Orchid Dig. 62(1): 22 (1998). 1996 </t>
+          <t>et in Orchid Dig. 62(1): 22 (1998). 1996</t>
         </is>
       </c>
       <c r="J92" t="b">
@@ -7585,7 +7585,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -7595,7 +7595,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. CAOB 26: 24, fig. 1996 </t>
+          <t>Bol. CAOB 26: 24, fig. 1996</t>
         </is>
       </c>
       <c r="J93" t="b">
@@ -7663,7 +7663,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -7741,7 +7741,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -7751,7 +7751,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schlechteriana [N.S.] 3: 152, figs. 1992 </t>
+          <t>Schlechteriana [N.S.] 3: 152, figs. 1992</t>
         </is>
       </c>
       <c r="J95" t="b">
@@ -7819,7 +7819,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -7829,7 +7829,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. CAOB 4(2): 34. 1992 </t>
+          <t>Bol. CAOB 4(2): 34. 1992</t>
         </is>
       </c>
       <c r="J96" t="b">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -7907,7 +7907,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t xml:space="preserve">et in Cattleya warneri 98 (1994). </t>
+          <t>et in Cattleya warneri 98 (1994).</t>
         </is>
       </c>
       <c r="J97" t="b">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orquidário 8(2): 38. 1994 </t>
+          <t>Orquidário 8(2): 38. 1994</t>
         </is>
       </c>
       <c r="J98" t="b">
@@ -8053,7 +8053,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -8063,7 +8063,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orchidophile (Asnières) 83: 176 (1988). </t>
+          <t>Orchidophile (Asnières) 83: 176 (1988).</t>
         </is>
       </c>
       <c r="J99" t="b">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -8209,7 +8209,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Richardiana 8(3): 100 (-103; fig. 3). 2008 </t>
+          <t>Richardiana 8(3): 100 (-103; fig. 3). 2008</t>
         </is>
       </c>
       <c r="J101" t="b">
@@ -8287,7 +8287,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -8297,7 +8297,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bradea 2(12): 68, fig. F. 1976 </t>
+          <t>Bradea 2(12): 68, fig. F. 1976</t>
         </is>
       </c>
       <c r="J102" t="b">
@@ -8365,7 +8365,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -8375,7 +8375,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orchis 99: 30 (1995). </t>
+          <t>Orchis 99: 30 (1995).</t>
         </is>
       </c>
       <c r="J103" t="b">
@@ -8443,7 +8443,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -8453,7 +8453,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Richardiana 4(2): 43 (-46; fig. 1; photogrs. 1-4). 2004 [Apr 2004] </t>
+          <t>Richardiana 4(2): 43 (-46; fig. 1; photogrs. 1-4). 2004 [Apr 2004]</t>
         </is>
       </c>
       <c r="J104" t="b">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -8531,7 +8531,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Richardiana 4(4): 146 (-150; fig. 1; map). 2004 [8 Sep 2004] </t>
+          <t>Richardiana 4(4): 146 (-150; fig. 1; map). 2004 [8 Sep 2004]</t>
         </is>
       </c>
       <c r="J105" t="b">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -8677,7 +8677,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -8687,7 +8687,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Syst. Bot. 37(1): 61. 2012 [31 Jan 2012] </t>
+          <t>Syst. Bot. 37(1): 61. 2012 [31 Jan 2012]</t>
         </is>
       </c>
       <c r="J107" t="b">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -8765,7 +8765,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orchid Rev. 11: 260. 1903 </t>
+          <t>Orchid Rev. 11: 260. 1903</t>
         </is>
       </c>
       <c r="J108" t="b">
@@ -8833,7 +8833,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -8843,7 +8843,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colet. Orquídeas Brasil. 16: 659. 2020 [25 Aug 2020] </t>
+          <t>Colet. Orquídeas Brasil. 16: 659. 2020 [25 Aug 2020]</t>
         </is>
       </c>
       <c r="J109" t="b">
@@ -8911,7 +8911,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -8989,7 +8989,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -8999,7 +8999,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colet. Orquídeas Brasil. 10: 366, figs. 1-4, map. 2014 [25 Feb 2014] </t>
+          <t>Colet. Orquídeas Brasil. 10: 366, figs. 1-4, map. 2014 [25 Feb 2014]</t>
         </is>
       </c>
       <c r="J111" t="b">
@@ -9067,7 +9067,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -9155,7 +9155,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colet. Orquídeas Brasil. 17: 682. 2021 [12 Mar 2021] </t>
+          <t>Colet. Orquídeas Brasil. 17: 682. 2021 [12 Mar 2021]</t>
         </is>
       </c>
       <c r="J113" t="b">
@@ -9223,7 +9223,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colet. Orquídeas Brasil. 9: 328 (-329; figs.). 2011 [25 May 2011] </t>
+          <t>Colet. Orquídeas Brasil. 9: 328 (-329; figs.). 2011 [25 May 2011]</t>
         </is>
       </c>
       <c r="J114" t="b">
@@ -9301,7 +9301,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -9379,7 +9379,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -9457,7 +9457,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -9535,7 +9535,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -9545,7 +9545,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t xml:space="preserve">OrchideenJ. 17(1): 30 (-33; figs.). 2010 [15 Feb 2010] </t>
+          <t>OrchideenJ. 17(1): 30 (-33; figs.). 2010 [15 Feb 2010]</t>
         </is>
       </c>
       <c r="J118" t="b">
@@ -9613,7 +9613,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -9691,7 +9691,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -9701,7 +9701,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t xml:space="preserve">OrchideenJ. 17(1): 34 (-36; figs.). 2010 [15 Feb 2010] </t>
+          <t>OrchideenJ. 17(1): 34 (-36; figs.). 2010 [15 Feb 2010]</t>
         </is>
       </c>
       <c r="J120" t="b">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -9847,7 +9847,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anexos Mem. Inst. Butantan, Secc. Bot. 1, fasc. 4: 26, pl. 4. 1922 </t>
+          <t>Anexos Mem. Inst. Butantan, Secc. Bot. 1, fasc. 4: 26, pl. 4. 1922</t>
         </is>
       </c>
       <c r="J122" t="b">
@@ -9925,7 +9925,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -10003,7 +10003,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Com. Lin. Telegr., Bot. 4: 24 (1912), as 'paludicolum'. </t>
+          <t>Com. Lin. Telegr., Bot. 4: 24 (1912), as 'paludicolum'.</t>
         </is>
       </c>
       <c r="J124" t="b">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -10159,7 +10159,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -10169,7 +10169,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colet. Orquídeas Brasil. 11: 410. 2015 [20 Apr 2015] </t>
+          <t>Colet. Orquídeas Brasil. 11: 410. 2015 [20 Apr 2015]</t>
         </is>
       </c>
       <c r="J126" t="b">
@@ -10237,7 +10237,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -10247,7 +10247,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colet. Orquídeas Brasil. 9: 332 (-333; figs.). 2011 [25 May 2011] </t>
+          <t>Colet. Orquídeas Brasil. 9: 332 (-333; figs.). 2011 [25 May 2011]</t>
         </is>
       </c>
       <c r="J127" t="b">
@@ -10315,7 +10315,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -10403,7 +10403,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colet. Orquídeas Brasil. 16: 663. 2020 [25 Aug 2020] </t>
+          <t>Colet. Orquídeas Brasil. 16: 663. 2020 [25 Aug 2020]</t>
         </is>
       </c>
       <c r="J129" t="b">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -10549,7 +10549,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -10559,7 +10559,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Richardiana 2(4): 154 (150-157; figs. 1-4; photogrs.). 2002 [Oct 2002] </t>
+          <t>Richardiana 2(4): 154 (150-157; figs. 1-4; photogrs.). 2002 [Oct 2002]</t>
         </is>
       </c>
       <c r="J131" t="b">
@@ -10627,7 +10627,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -10705,7 +10705,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colet. Orquídeas Brasil. 6: 194 (-197; figs.). 2008 [10 Nov 2008] </t>
+          <t>Colet. Orquídeas Brasil. 6: 194 (-197; figs.). 2008 [10 Nov 2008]</t>
         </is>
       </c>
       <c r="J133" t="b">
@@ -10783,7 +10783,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -10793,7 +10793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colet. Orquídeas Brasil. 10: 374, figs. 1-4. 2014 [25 Feb 2014] </t>
+          <t>Colet. Orquídeas Brasil. 10: 374, figs. 1-4. 2014 [25 Feb 2014]</t>
         </is>
       </c>
       <c r="J134" t="b">
@@ -10861,7 +10861,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -10871,7 +10871,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orquidário 21(4): 140 (138-144; figs. 1-2). 2007 </t>
+          <t>Orquidário 21(4): 140 (138-144; figs. 1-2). 2007</t>
         </is>
       </c>
       <c r="J135" t="b">
@@ -10939,7 +10939,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -10949,7 +10949,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orchid Digest 54: 157 (-158), fig. 1990 </t>
+          <t>Orchid Digest 54: 157 (-158), fig. 1990</t>
         </is>
       </c>
       <c r="J136" t="b">
@@ -11017,7 +11017,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -11027,7 +11027,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colet. Orquídeas Brasil. 15: 598. 2019 [30 Jul 2019] </t>
+          <t>Colet. Orquídeas Brasil. 15: 598. 2019 [30 Jul 2019]</t>
         </is>
       </c>
       <c r="J137" t="b">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -11105,7 +11105,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orquídea (Rio de Janeiro) 29: 63, tab. 3. 1967 </t>
+          <t>Orquídea (Rio de Janeiro) 29: 63, tab. 3. 1967</t>
         </is>
       </c>
       <c r="J138" t="b">
@@ -11173,7 +11173,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -11183,7 +11183,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orquidário 12: 7 (fig.). 1998 </t>
+          <t>Orquidário 12: 7 (fig.). 1998</t>
         </is>
       </c>
       <c r="J139" t="b">
@@ -11251,7 +11251,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -11261,7 +11261,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orchid Digest 55: 25 (-26), figs. 1991 </t>
+          <t>Orchid Digest 55: 25 (-26), figs. 1991</t>
         </is>
       </c>
       <c r="J140" t="b">
@@ -11329,7 +11329,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -11339,7 +11339,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. CAOB 3(1): 7, figs. 1990 </t>
+          <t>Bol. CAOB 3(1): 7, figs. 1990</t>
         </is>
       </c>
       <c r="J141" t="b">
@@ -11407,7 +11407,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -11417,7 +11417,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Intermezzo 1993(Febbraio): 6 (1993), without type. </t>
+          <t>Intermezzo 1993(Febbraio): 6 (1993), without type.</t>
         </is>
       </c>
       <c r="J142" t="b">
@@ -11485,7 +11485,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -11495,7 +11495,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. CAOB 3(1): 17, fig. 1990 </t>
+          <t>Bol. CAOB 3(1): 17, fig. 1990</t>
         </is>
       </c>
       <c r="J143" t="b">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orquidário 15(1): 18 (-20; fig.; photogr.). 2001 [?Apr 2001] </t>
+          <t>Orquidário 15(1): 18 (-20; fig.; photogr.). 2001 [?Apr 2001]</t>
         </is>
       </c>
       <c r="J144" t="b">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -11651,7 +11651,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Albertoa 3(10): 94 (-95; fig). 1991 </t>
+          <t>Albertoa 3(10): 94 (-95; fig). 1991</t>
         </is>
       </c>
       <c r="J145" t="b">
@@ -11719,7 +11719,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Agric. (Sao Paulo) 34: 616, t. 1934 </t>
+          <t>Bol. Agric. (Sao Paulo) 34: 616, t. 1934</t>
         </is>
       </c>
       <c r="J146" t="b">
@@ -11797,7 +11797,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -11807,7 +11807,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arq. Bot. Estado São Paulo (n. s.) 2: 84, t. 25. 1947 </t>
+          <t>Arq. Bot. Estado São Paulo (n. s.) 2: 84, t. 25. 1947</t>
         </is>
       </c>
       <c r="J147" t="b">
@@ -11875,7 +11875,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. CAOB No. 2, 3 &amp; 4: 9, fig. 1995 </t>
+          <t>Bol. CAOB No. 2, 3 &amp; 4: 9, fig. 1995</t>
         </is>
       </c>
       <c r="J148" t="b">
@@ -11953,7 +11953,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -11963,7 +11963,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colet. Orquídeas Brasil. 14: 558. 2018 [30 Oct 2018] </t>
+          <t>Colet. Orquídeas Brasil. 14: 558. 2018 [30 Oct 2018]</t>
         </is>
       </c>
       <c r="J149" t="b">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t xml:space="preserve">Icon. Orchid. Brasil. 3: t. 253. 2012 [Oct 2012] </t>
+          <t>Icon. Orchid. Brasil. 3: t. 253. 2012 [Oct 2012]</t>
         </is>
       </c>
       <c r="J150" t="b">
@@ -12109,7 +12109,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -12187,7 +12187,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -12265,7 +12265,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -12275,7 +12275,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Icon. Orchid. Brasil. 3: t. 255. 2012 [Oct 2012] </t>
+          <t>Icon. Orchid. Brasil. 3: t. 255. 2012 [Oct 2012]</t>
         </is>
       </c>
       <c r="J153" t="b">
@@ -12343,7 +12343,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -12421,7 +12421,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -12499,7 +12499,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Repert. Spec. Nov. Regni Veg. 16: 445. 1920 </t>
+          <t>Repert. Spec. Nov. Regni Veg. 16: 445. 1920</t>
         </is>
       </c>
       <c r="J156" t="b">
@@ -12577,7 +12577,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -12587,7 +12587,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anais Reunião Sul-Amer. Bot. 3: 38, tab. 5, fig. 1. 1940 </t>
+          <t>Anais Reunião Sul-Amer. Bot. 3: 38, tab. 5, fig. 1. 1940</t>
         </is>
       </c>
       <c r="J157" t="b">
@@ -12655,7 +12655,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t xml:space="preserve">Icon. Orchid. Brasil. 3: t. 256. 2012 [Oct 2012] </t>
+          <t>Icon. Orchid. Brasil. 3: t. 256. 2012 [Oct 2012]</t>
         </is>
       </c>
       <c r="J158" t="b">
